--- a/biology/Zoologie/Charaxes_affinis/Charaxes_affinis.xlsx
+++ b/biology/Zoologie/Charaxes_affinis/Charaxes_affinis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charases affinis est une espèce d'insectes lépidoptères  appartenant à la famille des Nymphalidae, à la sous-famille des Charaxinae et au genre Charaxes.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Charaxes affinis a été nommé par Arthur Gardiner Butler en 1866[1].
-Sous-espèces
-Charaxes affinis affinis
-Charaxes affinis butongensis[2]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes affinis a été nommé par Arthur Gardiner Butler en 1866.
+</t>
         </is>
       </c>
     </row>
@@ -541,13 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Charaxes affinis est un grand papillon au dessus orange avec aux ailes antérieures une large bande marginale marron et aux ailes postérieures une ligne submarginale de taches marron et une petite queue.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Charaxes affinis affinis
+Charaxes affinis butongensis</t>
         </is>
       </c>
     </row>
@@ -572,12 +590,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes affinis est un grand papillon au dessus orange avec aux ailes antérieures une large bande marginale marron et aux ailes postérieures une ligne submarginale de taches marron et une petite queue.
+</t>
         </is>
       </c>
     </row>
@@ -605,14 +626,50 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent à Sulawesi en Indonésie[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent à Sulawesi en Indonésie.
 Sur les autres projets Wikimedia :
 Charaxes affinis, sur Wikimedia CommonsCharaxes affinis, sur Wikispecies
-Biotope
-Protection
-Pas de protection : les spécimens sont vendus sur internet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charaxes_affinis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_affinis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de protection : les spécimens sont vendus sur internet.
 </t>
         </is>
       </c>
